--- a/resources/연령별인구현황.xlsx
+++ b/resources/연령별인구현황.xlsx
@@ -88,7 +88,7 @@
           <t>남</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="Z3" s="1" t="inlineStr">
         <is>
           <t>여</t>
         </is>
@@ -122,17 +122,217 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>5~9세</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>10~14세</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>15~19세</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>20~24세</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>25~29세</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>30~34세</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>35~39세</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>40~44세</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>45~49세</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>50~54세</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>55~59세</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>60~64세</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>65~69세</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>70~74세</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>75~79세</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>80~84세</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>85~89세</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>90~94세</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>95~99세</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>100세 이상</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
           <t>여 인구수</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="AA4" t="inlineStr">
         <is>
           <t>연령구간인구수</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>0~4세</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>5~9세</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>10~14세</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>15~19세</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>20~24세</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>25~29세</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>30~34세</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>35~39세</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>40~44세</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>45~49세</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>50~54세</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>55~59세</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>60~64세</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>65~69세</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>70~74세</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>75~79세</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>80~84세</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>85~89세</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>90~94세</t>
+        </is>
+      </c>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>95~99세</t>
+        </is>
+      </c>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>100세 이상</t>
         </is>
       </c>
     </row>
@@ -154,27 +354,227 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>25,492,996</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>648,339</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>648,339</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>950,546</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1,191,717</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1,182,489</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1,363,617</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>1,722,639</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>1,833,053</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>1,621,988</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>1,970,544</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1,948,862</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>2,248,772</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>2,147,892</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>2,084,369</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>1,768,242</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>1,141,322</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>806,758</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>529,142</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>252,280</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>67,740</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>11,150</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>1,535</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
           <t>25,714,878</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>25,714,878</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>618,373</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>618,373</t>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>902,791</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>1,131,899</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>1,114,571</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>1,263,569</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>1,580,523</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>1,646,810</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>1,515,801</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>1,894,498</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>1,893,163</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>2,188,712</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>2,133,752</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>2,098,885</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>1,869,039</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>1,281,323</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>990,687</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>811,449</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>516,190</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t>206,306</t>
+        </is>
+      </c>
+      <c r="AU5" t="inlineStr">
+        <is>
+          <t>49,439</t>
+        </is>
+      </c>
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t>7,098</t>
         </is>
       </c>
     </row>
@@ -196,27 +596,227 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>4,504,432</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>103,671</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>103,671</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>143,277</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>180,752</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>187,565</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>246,025</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>366,969</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>399,672</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>322,369</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>350,899</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>332,453</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>382,614</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>348,896</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>331,943</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>295,342</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>202,243</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>150,279</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>100,354</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>44,943</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>11,630</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>2,195</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
           <t>4,826,226</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>4,826,226</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>98,759</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>98,759</t>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>135,737</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>171,242</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>180,641</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>280,249</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>409,571</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>397,336</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>322,954</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>355,611</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>343,601</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>393,036</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>363,193</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>358,833</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>338,782</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>238,580</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>188,642</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>135,510</t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>76,340</t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr">
+        <is>
+          <t>29,023</t>
+        </is>
+      </c>
+      <c r="AU6" t="inlineStr">
+        <is>
+          <t>7,444</t>
+        </is>
+      </c>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t>1,142</t>
         </is>
       </c>
     </row>
@@ -238,27 +838,227 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>1,588,357</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>36,341</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>36,341</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>56,068</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>69,500</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>65,399</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>82,369</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>99,722</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>106,133</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>94,394</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>119,822</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>117,689</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>133,426</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>129,933</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>134,481</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>128,131</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>90,753</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>62,671</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>40,218</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>16,741</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>3,910</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>596</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
           <t>1,675,534</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>1,675,534</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>34,355</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>34,355</t>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>53,618</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>66,076</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>62,070</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>79,296</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>95,040</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>98,024</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>89,752</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>116,801</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>115,546</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>135,392</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>139,082</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>149,531</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>147,649</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>106,324</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>79,669</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>59,312</t>
+        </is>
+      </c>
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>32,903</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t>11,872</t>
+        </is>
+      </c>
+      <c r="AU7" t="inlineStr">
+        <is>
+          <t>2,849</t>
+        </is>
+      </c>
+      <c r="AV7" t="inlineStr">
+        <is>
+          <t>373</t>
         </is>
       </c>
     </row>
@@ -280,27 +1080,227 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>1,159,235</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>28,056</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>28,056</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>44,543</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>54,815</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>54,625</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>65,201</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>74,854</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>79,441</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>71,370</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>84,172</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>86,543</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>102,388</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>101,796</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>97,590</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>81,805</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>54,598</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>37,273</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>24,976</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>11,724</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>3,034</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
           <t>1,204,046</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>1,204,046</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>26,676</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>26,676</t>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>42,149</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>52,430</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>51,015</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>58,857</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>67,754</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>68,918</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>62,746</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>84,438</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>88,558</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>106,813</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>107,534</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>104,572</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>91,564</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>65,987</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>49,086</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
+        <is>
+          <t>39,977</t>
+        </is>
+      </c>
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>23,973</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr">
+        <is>
+          <t>8,878</t>
+        </is>
+      </c>
+      <c r="AU8" t="inlineStr">
+        <is>
+          <t>1,896</t>
+        </is>
+      </c>
+      <c r="AV8" t="inlineStr">
+        <is>
+          <t>225</t>
         </is>
       </c>
     </row>
@@ -322,27 +1322,227 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>1,510,615</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>41,546</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>41,546</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>58,028</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>70,917</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>69,016</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>78,273</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>102,569</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>116,661</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>103,783</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>124,840</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>119,882</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>132,611</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>125,455</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>126,080</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>101,073</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>59,151</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>40,807</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>24,741</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>11,447</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>3,071</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>565</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
           <t>1,513,034</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>1,513,034</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>39,735</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>39,735</t>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>55,031</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>67,383</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>65,688</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>73,712</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>95,573</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>105,778</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>95,977</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>117,346</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>113,327</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>130,055</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>129,504</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>127,755</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>105,701</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>65,110</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>49,649</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
+        <is>
+          <t>38,022</t>
+        </is>
+      </c>
+      <c r="AS9" t="inlineStr">
+        <is>
+          <t>24,411</t>
+        </is>
+      </c>
+      <c r="AT9" t="inlineStr">
+        <is>
+          <t>10,217</t>
+        </is>
+      </c>
+      <c r="AU9" t="inlineStr">
+        <is>
+          <t>2,640</t>
+        </is>
+      </c>
+      <c r="AV9" t="inlineStr">
+        <is>
+          <t>420</t>
         </is>
       </c>
     </row>
@@ -364,27 +1564,227 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>694,532</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>18,246</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>18,246</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>28,729</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>37,053</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>37,879</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>43,976</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>50,356</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>48,744</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>41,365</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>54,165</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>55,055</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>62,965</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>57,612</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>50,858</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>40,587</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>26,011</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>20,218</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>13,012</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>5,857</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>1,548</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
           <t>712,565</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>712,565</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>17,650</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>17,650</t>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>27,434</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>35,044</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>35,295</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>40,301</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>46,360</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>43,939</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>39,493</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>53,646</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>56,042</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>63,896</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>59,151</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>53,719</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>45,612</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>31,546</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>26,361</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t>19,528</t>
+        </is>
+      </c>
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>11,517</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr">
+        <is>
+          <t>4,719</t>
+        </is>
+      </c>
+      <c r="AU10" t="inlineStr">
+        <is>
+          <t>1,151</t>
+        </is>
+      </c>
+      <c r="AV10" t="inlineStr">
+        <is>
+          <t>161</t>
         </is>
       </c>
     </row>
@@ -406,27 +1806,227 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>717,162</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>19,740</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>19,740</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>27,067</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>34,385</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>35,411</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>44,871</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>55,711</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>55,055</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>46,360</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>52,911</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>53,453</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>62,971</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>58,749</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>54,491</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>45,645</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>29,232</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>20,003</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>12,890</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>6,201</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>1,715</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
           <t>721,812</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>721,812</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>18,358</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>18,358</t>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>25,770</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>32,390</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>33,340</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>42,470</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>49,842</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>47,985</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>41,500</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>52,001</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>54,232</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>62,859</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>59,605</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>56,700</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>49,679</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>33,162</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>24,444</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
+        <is>
+          <t>19,241</t>
+        </is>
+      </c>
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>12,099</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr">
+        <is>
+          <t>4,785</t>
+        </is>
+      </c>
+      <c r="AU11" t="inlineStr">
+        <is>
+          <t>1,167</t>
+        </is>
+      </c>
+      <c r="AV11" t="inlineStr">
+        <is>
+          <t>183</t>
         </is>
       </c>
     </row>
@@ -448,27 +2048,227 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>564,893</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>14,189</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>14,189</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>22,983</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>28,980</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>27,892</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>29,116</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>37,989</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>39,019</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>35,675</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>44,778</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>44,401</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>49,297</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>52,450</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>49,713</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>38,837</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>23,648</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>14,244</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>7,832</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>2,989</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
           <t>532,928</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>532,928</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>13,723</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>13,723</t>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>21,617</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>27,203</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>25,422</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>21,947</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>27,770</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>30,948</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>30,517</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>41,924</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>41,470</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>49,626</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>51,717</t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>47,525</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>39,370</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>24,556</t>
+        </is>
+      </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>15,668</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
+        <is>
+          <t>11,780</t>
+        </is>
+      </c>
+      <c r="AS12" t="inlineStr">
+        <is>
+          <t>6,798</t>
+        </is>
+      </c>
+      <c r="AT12" t="inlineStr">
+        <is>
+          <t>2,651</t>
+        </is>
+      </c>
+      <c r="AU12" t="inlineStr">
+        <is>
+          <t>618</t>
+        </is>
+      </c>
+      <c r="AV12" t="inlineStr">
+        <is>
+          <t>78</t>
         </is>
       </c>
     </row>
@@ -490,27 +2290,227 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>194,470</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>8,118</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>8,118</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>12,718</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>14,676</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>12,057</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>9,231</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>9,512</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>13,567</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>15,360</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>19,445</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>18,417</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>17,516</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>12,455</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>10,782</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>8,573</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>5,266</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>3,341</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>2,066</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>1,003</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
           <t>196,440</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>196,440</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>8,029</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>8,029</t>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>12,203</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>13,928</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>12,156</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>8,316</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>9,847</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>13,965</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>15,699</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>20,664</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>18,591</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>15,707</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>11,848</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>10,572</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>8,874</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>5,555</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>3,819</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
+        <is>
+          <t>3,140</t>
+        </is>
+      </c>
+      <c r="AS13" t="inlineStr">
+        <is>
+          <t>2,175</t>
+        </is>
+      </c>
+      <c r="AT13" t="inlineStr">
+        <is>
+          <t>1,052</t>
+        </is>
+      </c>
+      <c r="AU13" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="AV13" t="inlineStr">
+        <is>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -532,27 +2532,227 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>6,884,215</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>197,785</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>197,785</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>280,682</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>342,063</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>332,420</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>370,803</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>479,170</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>523,141</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>473,565</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>573,721</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>554,852</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>620,788</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>568,380</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>533,312</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>422,071</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>250,687</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>174,369</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>113,220</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>54,902</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>15,266</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>2,598</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
           <t>6,815,432</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>6,815,432</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
         <is>
           <t>188,707</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>188,707</t>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>267,415</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>327,881</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>316,991</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>343,424</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>428,998</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>465,922</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>442,810</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>545,701</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>537,432</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>605,823</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>567,751</t>
+        </is>
+      </c>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>525,335</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>433,615</t>
+        </is>
+      </c>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>276,480</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>212,186</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>167,860</t>
+        </is>
+      </c>
+      <c r="AS14" t="inlineStr">
+        <is>
+          <t>106,262</t>
+        </is>
+      </c>
+      <c r="AT14" t="inlineStr">
+        <is>
+          <t>42,523</t>
+        </is>
+      </c>
+      <c r="AU14" t="inlineStr">
+        <is>
+          <t>10,791</t>
+        </is>
+      </c>
+      <c r="AV14" t="inlineStr">
+        <is>
+          <t>1,525</t>
         </is>
       </c>
     </row>
@@ -574,27 +2774,227 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>762,039</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>18,316</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>18,316</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>25,140</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>31,918</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>33,437</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>41,010</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>45,777</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>45,005</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>39,806</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>49,610</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>52,151</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>66,102</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>68,353</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>72,221</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>67,616</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>41,710</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>28,904</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>21,275</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>10,553</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>2,567</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
           <t>753,783</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>753,783</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
         <is>
           <t>17,698</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>17,698</t>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>23,972</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>30,190</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>30,831</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>32,629</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>35,725</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>37,323</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>36,008</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>47,610</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>50,557</t>
+        </is>
+      </c>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>61,621</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>64,979</t>
+        </is>
+      </c>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>71,071</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>67,762</t>
+        </is>
+      </c>
+      <c r="AP15" t="inlineStr">
+        <is>
+          <t>45,047</t>
+        </is>
+      </c>
+      <c r="AQ15" t="inlineStr">
+        <is>
+          <t>35,012</t>
+        </is>
+      </c>
+      <c r="AR15" t="inlineStr">
+        <is>
+          <t>33,150</t>
+        </is>
+      </c>
+      <c r="AS15" t="inlineStr">
+        <is>
+          <t>21,546</t>
+        </is>
+      </c>
+      <c r="AT15" t="inlineStr">
+        <is>
+          <t>8,432</t>
+        </is>
+      </c>
+      <c r="AU15" t="inlineStr">
+        <is>
+          <t>2,295</t>
+        </is>
+      </c>
+      <c r="AV15" t="inlineStr">
+        <is>
+          <t>325</t>
         </is>
       </c>
     </row>
@@ -616,27 +3016,227 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>809,763</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>20,521</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>20,521</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>29,503</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>36,574</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>37,075</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>42,422</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>52,940</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>56,195</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>47,959</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>58,224</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>58,511</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>69,317</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>71,494</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>71,466</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>62,555</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>38,879</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>26,017</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>17,977</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>9,295</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>2,406</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
           <t>780,903</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>780,903</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
         <is>
           <t>19,431</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>19,431</t>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>27,838</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>35,110</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>34,166</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>35,354</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>41,871</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>43,389</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>41,704</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>53,410</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>54,370</t>
+        </is>
+      </c>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>64,459</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>68,646</t>
+        </is>
+      </c>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>67,935</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>62,298</t>
+        </is>
+      </c>
+      <c r="AP16" t="inlineStr">
+        <is>
+          <t>41,472</t>
+        </is>
+      </c>
+      <c r="AQ16" t="inlineStr">
+        <is>
+          <t>30,606</t>
+        </is>
+      </c>
+      <c r="AR16" t="inlineStr">
+        <is>
+          <t>28,904</t>
+        </is>
+      </c>
+      <c r="AS16" t="inlineStr">
+        <is>
+          <t>19,899</t>
+        </is>
+      </c>
+      <c r="AT16" t="inlineStr">
+        <is>
+          <t>8,013</t>
+        </is>
+      </c>
+      <c r="AU16" t="inlineStr">
+        <is>
+          <t>1,788</t>
+        </is>
+      </c>
+      <c r="AV16" t="inlineStr">
+        <is>
+          <t>240</t>
         </is>
       </c>
     </row>
@@ -658,27 +3258,227 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>1,095,933</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>27,587</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>27,587</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>41,321</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>52,500</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>51,747</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>55,523</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>66,223</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>70,118</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>67,564</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>84,973</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>83,899</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>96,198</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>91,781</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>93,087</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>78,379</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>51,804</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>38,188</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>25,496</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>14,417</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>4,372</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>676</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
           <t>1,039,882</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>1,039,882</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
         <is>
           <t>26,021</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>26,021</t>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>39,344</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>49,387</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>48,204</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>46,945</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>50,747</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>56,073</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>57,922</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>74,510</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>74,024</t>
+        </is>
+      </c>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>83,195</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>82,519</t>
+        </is>
+      </c>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>86,551</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>77,637</t>
+        </is>
+      </c>
+      <c r="AP17" t="inlineStr">
+        <is>
+          <t>55,868</t>
+        </is>
+      </c>
+      <c r="AQ17" t="inlineStr">
+        <is>
+          <t>43,657</t>
+        </is>
+      </c>
+      <c r="AR17" t="inlineStr">
+        <is>
+          <t>40,583</t>
+        </is>
+      </c>
+      <c r="AS17" t="inlineStr">
+        <is>
+          <t>30,456</t>
+        </is>
+      </c>
+      <c r="AT17" t="inlineStr">
+        <is>
+          <t>12,973</t>
+        </is>
+      </c>
+      <c r="AU17" t="inlineStr">
+        <is>
+          <t>2,851</t>
+        </is>
+      </c>
+      <c r="AV17" t="inlineStr">
+        <is>
+          <t>415</t>
         </is>
       </c>
     </row>
@@ -700,27 +3500,227 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>865,346</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>18,573</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>18,573</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>29,503</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>40,755</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>42,635</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>47,570</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>50,527</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>47,629</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>42,562</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>56,913</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>62,612</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>78,765</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>78,130</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>77,259</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>67,399</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>47,619</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>36,130</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>23,809</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>12,666</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>3,643</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>590</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
           <t>872,005</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>872,005</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
         <is>
           <t>18,105</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>18,105</t>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>28,000</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>38,455</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>39,405</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>40,069</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>42,242</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>42,049</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>40,284</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>54,682</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>59,436</t>
+        </is>
+      </c>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>72,773</t>
+        </is>
+      </c>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>72,652</t>
+        </is>
+      </c>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>74,900</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>68,998</t>
+        </is>
+      </c>
+      <c r="AP18" t="inlineStr">
+        <is>
+          <t>52,590</t>
+        </is>
+      </c>
+      <c r="AQ18" t="inlineStr">
+        <is>
+          <t>44,681</t>
+        </is>
+      </c>
+      <c r="AR18" t="inlineStr">
+        <is>
+          <t>39,888</t>
+        </is>
+      </c>
+      <c r="AS18" t="inlineStr">
+        <is>
+          <t>27,815</t>
+        </is>
+      </c>
+      <c r="AT18" t="inlineStr">
+        <is>
+          <t>11,853</t>
+        </is>
+      </c>
+      <c r="AU18" t="inlineStr">
+        <is>
+          <t>2,717</t>
+        </is>
+      </c>
+      <c r="AV18" t="inlineStr">
+        <is>
+          <t>411</t>
         </is>
       </c>
     </row>
@@ -742,27 +3742,227 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>901,816</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>20,964</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>20,964</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>30,417</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>39,941</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>40,329</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>44,572</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>49,514</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>46,696</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>42,708</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>59,125</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>63,697</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>80,192</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>86,134</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>86,106</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>74,756</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>51,295</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>40,164</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>27,376</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>13,510</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>3,629</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>614</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
           <t>885,776</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>885,776</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
         <is>
           <t>20,397</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>20,397</t>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>28,898</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>38,231</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>37,885</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>35,033</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>39,235</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>40,029</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>39,438</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>52,934</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>56,387</t>
+        </is>
+      </c>
+      <c r="AL19" t="inlineStr">
+        <is>
+          <t>68,670</t>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>73,523</t>
+        </is>
+      </c>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>78,460</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>72,458</t>
+        </is>
+      </c>
+      <c r="AP19" t="inlineStr">
+        <is>
+          <t>55,168</t>
+        </is>
+      </c>
+      <c r="AQ19" t="inlineStr">
+        <is>
+          <t>49,648</t>
+        </is>
+      </c>
+      <c r="AR19" t="inlineStr">
+        <is>
+          <t>48,305</t>
+        </is>
+      </c>
+      <c r="AS19" t="inlineStr">
+        <is>
+          <t>33,863</t>
+        </is>
+      </c>
+      <c r="AT19" t="inlineStr">
+        <is>
+          <t>13,679</t>
+        </is>
+      </c>
+      <c r="AU19" t="inlineStr">
+        <is>
+          <t>3,069</t>
+        </is>
+      </c>
+      <c r="AV19" t="inlineStr">
+        <is>
+          <t>466</t>
         </is>
       </c>
     </row>
@@ -784,27 +3984,227 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>1,279,180</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>28,210</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>28,210</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>43,282</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>56,002</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>56,874</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>63,182</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>71,136</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>71,735</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>68,148</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>87,324</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>91,097</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>111,411</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>117,458</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>122,355</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>108,794</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>74,684</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>50,613</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>34,040</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>17,302</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>4,802</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>670</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
           <t>1,249,461</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>1,249,461</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
         <is>
           <t>26,636</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>26,636</t>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>40,951</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>51,937</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>50,972</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>47,825</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>52,090</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>56,811</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>58,338</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>80,361</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>83,669</t>
+        </is>
+      </c>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>102,580</t>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>110,130</t>
+        </is>
+      </c>
+      <c r="AN20" t="inlineStr">
+        <is>
+          <t>116,427</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>109,569</t>
+        </is>
+      </c>
+      <c r="AP20" t="inlineStr">
+        <is>
+          <t>81,660</t>
+        </is>
+      </c>
+      <c r="AQ20" t="inlineStr">
+        <is>
+          <t>60,020</t>
+        </is>
+      </c>
+      <c r="AR20" t="inlineStr">
+        <is>
+          <t>58,423</t>
+        </is>
+      </c>
+      <c r="AS20" t="inlineStr">
+        <is>
+          <t>40,630</t>
+        </is>
+      </c>
+      <c r="AT20" t="inlineStr">
+        <is>
+          <t>16,340</t>
+        </is>
+      </c>
+      <c r="AU20" t="inlineStr">
+        <is>
+          <t>3,600</t>
+        </is>
+      </c>
+      <c r="AV20" t="inlineStr">
+        <is>
+          <t>492</t>
         </is>
       </c>
     </row>
@@ -826,27 +4226,227 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>1,626,214</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>37,283</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>37,283</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>62,260</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>82,328</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>80,437</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>81,704</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>90,279</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>93,529</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>90,335</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>123,534</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>127,267</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>150,207</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>148,965</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>145,643</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>125,062</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>80,649</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>53,412</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>33,252</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>15,337</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>4,086</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
           <t>1,600,385</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>1,600,385</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
         <is>
           <t>35,234</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>35,234</t>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>58,609</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>77,294</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>74,206</t>
+        </is>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>62,187</t>
+        </is>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>70,377</t>
+        </is>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>78,941</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>82,014</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>116,798</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>120,170</t>
+        </is>
+      </c>
+      <c r="AL21" t="inlineStr">
+        <is>
+          <t>142,143</t>
+        </is>
+      </c>
+      <c r="AM21" t="inlineStr">
+        <is>
+          <t>144,253</t>
+        </is>
+      </c>
+      <c r="AN21" t="inlineStr">
+        <is>
+          <t>142,893</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>127,173</t>
+        </is>
+      </c>
+      <c r="AP21" t="inlineStr">
+        <is>
+          <t>87,527</t>
+        </is>
+      </c>
+      <c r="AQ21" t="inlineStr">
+        <is>
+          <t>65,199</t>
+        </is>
+      </c>
+      <c r="AR21" t="inlineStr">
+        <is>
+          <t>57,592</t>
+        </is>
+      </c>
+      <c r="AS21" t="inlineStr">
+        <is>
+          <t>38,280</t>
+        </is>
+      </c>
+      <c r="AT21" t="inlineStr">
+        <is>
+          <t>15,671</t>
+        </is>
+      </c>
+      <c r="AU21" t="inlineStr">
+        <is>
+          <t>3,429</t>
+        </is>
+      </c>
+      <c r="AV21" t="inlineStr">
+        <is>
+          <t>395</t>
         </is>
       </c>
     </row>
@@ -868,35 +4468,235 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>334,794</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>9,193</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>9,193</t>
-        </is>
-      </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>15,025</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>18,558</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>17,691</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>17,769</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>19,391</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>20,713</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>18,665</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>26,088</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>26,883</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>32,004</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>29,851</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>26,982</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>21,617</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>13,093</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>10,125</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>6,608</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>3,393</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>1,009</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
           <t>334,666</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>334,666</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
         <is>
           <t>8,859</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>8,859</t>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>14,205</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>17,718</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>16,284</t>
+        </is>
+      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>14,955</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>17,481</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>19,380</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>18,645</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>26,061</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>25,751</t>
+        </is>
+      </c>
+      <c r="AL22" t="inlineStr">
+        <is>
+          <t>30,064</t>
+        </is>
+      </c>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>27,665</t>
+        </is>
+      </c>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>26,106</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>22,298</t>
+        </is>
+      </c>
+      <c r="AP22" t="inlineStr">
+        <is>
+          <t>14,691</t>
+        </is>
+      </c>
+      <c r="AQ22" t="inlineStr">
+        <is>
+          <t>12,340</t>
+        </is>
+      </c>
+      <c r="AR22" t="inlineStr">
+        <is>
+          <t>10,234</t>
+        </is>
+      </c>
+      <c r="AS22" t="inlineStr">
+        <is>
+          <t>7,223</t>
+        </is>
+      </c>
+      <c r="AT22" t="inlineStr">
+        <is>
+          <t>3,625</t>
+        </is>
+      </c>
+      <c r="AU22" t="inlineStr">
+        <is>
+          <t>869</t>
+        </is>
+      </c>
+      <c r="AV22" t="inlineStr">
+        <is>
+          <t>212</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="C2:AV2"/>
+    <mergeCell ref="C3:Y3"/>
+    <mergeCell ref="Z3:AV3"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
